--- a/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC3.4.3_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC3.4.3_TC1.xlsx
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2977197053667061</v>
+        <v>0.2739101815571823</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2977197053667061, 'ngram_match_score': 0.0981770772598767, 'weighted_ngram_match_score': 0.12383727534247875, 'syntax_match_score': 0.5879120879120879, 'dataflow_match_score': 0.38095238095238093}</t>
+          <t>{'codebleu': 0.2739101815571823, 'ngram_match_score': 0.0981770772598767, 'weighted_ngram_match_score': 0.12383727534247875, 'syntax_match_score': 0.5879120879120879, 'dataflow_match_score': 0.2857142857142857}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC3.4.3_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC3.4.3_TC1.xlsx
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2739101815571823</v>
+        <v>0.3126006577476584</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2739101815571823, 'ngram_match_score': 0.0981770772598767, 'weighted_ngram_match_score': 0.12383727534247875, 'syntax_match_score': 0.5879120879120879, 'dataflow_match_score': 0.2857142857142857}</t>
+          <t>{'codebleu': 0.31260065774765844, 'ngram_match_score': 0.0981770772598767, 'weighted_ngram_match_score': 0.12383727534247875, 'syntax_match_score': 0.5879120879120879, 'dataflow_match_score': 0.44047619047619047}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
